--- a/target/classes/caseconf/userQueryLimitMdById/Case_userQueryLimitMdById.xlsx
+++ b/target/classes/caseconf/userQueryLimitMdById/Case_userQueryLimitMdById.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>lable</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -221,13 +221,6 @@
   </si>
   <si>
     <t>查询成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"tenantId":"consume",
-"tenantUserId": "005"
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -242,27 +235,6 @@
   </si>
   <si>
     <t>/queryLimitMdById</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0000",
-    "resMsg": "成功",
-    "successful": 1,
-    "data": {
-        "tenantId": "consume",
-        "tenantUserId": "005",
-        "userId": 693145221335302144,
-        "mobileNo": "e4da3b7fbbce2345d7772b0674a318d5",
-        "certNo": "1679091c5a880faf6fb5e6087eb1b2dc",
-        "mobileAndCertNo": "9f61408e3afb633e50cdf1b20de6f466",
-        "certAndMobileNo": "fc490ca45c00b1249bbe3554a4fdf6fb",
-        "nameAndCertNo": "c74d97b01eae257e44aa9d5bade97baf",
-        "certNoAndName": "7f39f8317fbdb1988ef4c628eba02591",
-        "nameAndMobileNo": "9bf31c7ff062936a96d3c8bd1f8f2ff3",
-        "mobileNoAndName": "2838023a778dfaecdc212708f721b788"
-    }
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -339,13 +311,6 @@
   </si>
   <si>
     <t>{
-"tenantId":"",
-"tenantUserId": "005"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "resCode": "E0001",
     "resMsg": "系统错误",
     "successful": 0,
@@ -389,6 +354,57 @@
   </si>
   <si>
     <t>userQueryLimitMdById-006</t>
+  </si>
+  <si>
+    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where tenant_id = 1001;
+delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"1001",
+"tenantUserId": "000113"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0000",
+    "resMsg": "成功",
+    "successful": 1,
+    "data": {
+        "tenantId": "1001",
+        "tenantUserId": "000113",
+        "userId": 699222007535509504,
+        "mobileNo": "9337473d97849183519161fea2bfd554",
+        "certNo": "67b10fbf4bd7cd6871830cf7fe5ee581",
+        "mobileAndCertNo": "37f23ec7e589c3d77d162ddaccb495f8",
+        "certAndMobileNo": "458fdf82207c3a7d063d4924c2d310a2",
+        "nameAndCertNo": "6252a94479dbeb9c309a061962389948",
+        "certNoAndName": "233bcb92b24dbebd294b2eade430541d",
+        "nameAndMobileNo": "e5a3a77b29f86275295b31a1289e5400",
+        "mobileNoAndName": "c7ca10cbfddc6285810765c42cf91159"
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"tenantId":"",
+"tenantUserId": "005"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -503,7 +519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -585,6 +601,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -871,8 +890,8 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -946,35 +965,39 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" ht="364">
+    <row r="2" spans="1:16" s="12" customFormat="1" ht="409.5">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="F2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>42</v>
+      </c>
       <c r="H2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="19" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="11"/>
@@ -984,10 +1007,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -997,13 +1020,13 @@
         <v>15</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="19" t="s">
@@ -1017,10 +1040,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -1030,17 +1053,17 @@
         <v>15</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="11"/>
@@ -1050,10 +1073,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -1063,17 +1086,17 @@
         <v>15</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="11"/>
@@ -1083,10 +1106,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="23"/>
@@ -1096,17 +1119,17 @@
         <v>15</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="25"/>
       <c r="M6" s="26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="11"/>
@@ -1116,10 +1139,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -1129,17 +1152,17 @@
         <v>15</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="11"/>

--- a/target/classes/caseconf/userQueryLimitMdById/Case_userQueryLimitMdById.xlsx
+++ b/target/classes/caseconf/userQueryLimitMdById/Case_userQueryLimitMdById.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/userQueryLimitMdById/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="8000" yWindow="-19200" windowWidth="21600" windowHeight="17880"/>
   </bookViews>
   <sheets>
     <sheet name="userQueryLimitMdById" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -356,22 +367,6 @@
     <t>userQueryLimitMdById-006</t>
   </si>
   <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_request_serial where tenant_id = 1001;
-delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "tenantId":"1001",
 "tenantUserId": "000113"
@@ -406,12 +401,28 @@
 }</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_request_serial where tenant_id = "1001";
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,33 +900,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="2.58203125" style="8" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="1" style="8" customWidth="1"/>
+    <col min="5" max="5" width="2.5" style="8" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="32" style="8" customWidth="1"/>
-    <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" style="8" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="14" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
     <col min="14" max="14" width="25.83203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="65.9140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15" style="8" customWidth="1"/>
+    <col min="16" max="16" width="65.83203125" style="5" customWidth="1"/>
     <col min="17" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1">
+    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="2" spans="1:16" s="12" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -978,10 +989,10 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>15</v>
@@ -993,16 +1004,16 @@
         <v>14</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="11"/>
     </row>
-    <row r="3" spans="1:16" s="12" customFormat="1" ht="70">
+    <row r="3" spans="1:16" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1035,7 +1046,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" ht="266">
+    <row r="4" spans="1:16" s="12" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1059,7 +1070,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="26" t="s">
@@ -1068,7 +1079,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" ht="266">
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1101,7 +1112,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:16" s="12" customFormat="1" ht="266">
+    <row r="6" spans="1:16" s="12" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1134,7 +1145,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:16" s="12" customFormat="1" ht="266">
+    <row r="7" spans="1:16" s="12" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
